--- a/medicine/Mort/Décès_en_1941/Décès_en_1941.xlsx
+++ b/medicine/Mort/Décès_en_1941/Décès_en_1941.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1941</t>
+          <t>Décès_en_1941</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1941</t>
+          <t>Décès_en_1941</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Mario Tamagno, architecte italien (° 19 juin 1877)
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mario Tamagno, architecte italien (° 19 juin 1877)
 Fernand Alkan-Lévy, peintre français (° 1870).
 Gustave Assire, peintre, aquarelliste et illustrateur français (° 31 octobre 1870).
 Pierre Berthelier, peintre français (° 1878).
@@ -542,9 +559,43 @@
 Charles Jaffeux, peintre et graveur français (° 1902).
 Fania Lewando, écrivaine culinaire russe puis soviétique (° 1888).
 Luigi Olivetti, peintre et graveur italien (° 11 novembre 1856).
-Giuseppe Petrai, journaliste, écrivain, réalisateur et scénariste italien (° 25 juillet 1853).
-Janvier
-2 janvier :
+Giuseppe Petrai, journaliste, écrivain, réalisateur et scénariste italien (° 25 juillet 1853).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier :
 Joseph Kutter, peintre luxembourgeois (° 12 décembre 1894).
 Mischa Levitzki, pianiste de concert russe naturalisé américain (° 25 mai 1898).
 3 janvier : Eugène Boch, peintre belge (° 1er septembre 1855).
@@ -566,9 +617,43 @@
 29 janvier : Ioánnis Metaxás, homme politique grec (° 12 avril 1871).
 31 janvier :
 Fernand Quignon, peintre français (° 20 septembre 1854).
-Maurice Lévis, peintre et aquarelliste français (° 11 novembre 1860).
-Février
-5 février :
+Maurice Lévis, peintre et aquarelliste français (° 11 novembre 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février :
 Alfred Arthur Brunel-Neuville, peintre de genre français (° 2 décembre 1852).
 Édouard Paul Mérite, peintre et sculpteur français (° 7 mars 1867).
 6 février : Maximilien Luce, peintre, graveur et militant libertaire français (° 13 mars 1858).
@@ -585,9 +670,43 @@
 Frederick Banting, physicien canadien, Prix Nobel de médecine 1923 (° 14 novembre 1891).
 Guerrita (Rafael Guerra Bejarano), matador espagnol (° 6 mars 1862).
 Louis Rebour, capitaine au long cours, compagnon de la Libération (° 2 juillet 1907).
-28 février : l'ex-roi Alphonse XIII d'Espagne, duc de Tolède (° 17 mai 1886).
-Mars
-2 mars : Frédéric-Auguste Cazals, peintre, dessinateur, écrivain, poète et illustrateur français (° 31 juillet 1865).
+28 février : l'ex-roi Alphonse XIII d'Espagne, duc de Tolède (° 17 mai 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Frédéric-Auguste Cazals, peintre, dessinateur, écrivain, poète et illustrateur français (° 31 juillet 1865).
 6 mars :
 Paul Hymans, avocat et homme politique belge (° 23 mars 1865).
 Eudaldo Serrano Recio, républicain espagnol, membre fondateur du PSOE (° 1er janvier 1903).
@@ -607,18 +726,86 @@
 28 mars :
 Marcus Hurley, coureur cycliste sur piste américain (° 22 décembre 1883).
 Virginia Woolf, écrivain britannique (° 25 janvier 1882).
-29 mars : Ernest Choquette, écrivain, homme politique, journaliste et médecin canadien (° 18 novembre 1862).
-Avril
-3 avril : Takeshirō Kanokogi, peintre japonais (° 9 novembre 1874).
+29 mars : Ernest Choquette, écrivain, homme politique, journaliste et médecin canadien (° 18 novembre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : Takeshirō Kanokogi, peintre japonais (° 9 novembre 1874).
 13 avril : Annie Jump Cannon, astronome américaine (° 11 décembre 1863).
 16 avril : Émile Bernard, peintre et écrivain français (° 28 avril 1868).
 18 avril : Eugène Galien-Laloue,  peintre et graveur français (° 11 décembre 1854).
 22 avril : Sisowath Monivong, roi du Cambodge (° 27 décembre 1875).
 24 avril : Yasushi Tanaka, peintre de portraits, nus, architectures, paysages et fleurs japonais (° 13 mai 1886).
 25 avril : Elizabeth F. Fisher, géologue américaine (° 26 novembre 1873).
-28 avril : Jeanne Contal, peintre miniaturiste française (° 7 janvier 1866).
-Mai
-3 mai : Georges Dilly, peintre français (° 16 juin 1874).
+28 avril : Jeanne Contal, peintre miniaturiste française (° 7 janvier 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Georges Dilly, peintre français (° 16 juin 1874).
 4 mai :
 Johann von Pallavicini, diplomate autrichien puis austro-hongrois (° 18 mars 1848).
 Herluf Zahle, barrister, diplomate et homme politique danois (° 14 mars 1873).
@@ -635,9 +822,43 @@
 24 mai : Tita Gori, peintre italien (° 22 juillet 1870).
 26 mai : Alphonse Lalauze, peintre et illustrateur français (° 4 juin 1872).
 29 mai : Oskar Joost, musicien et chef d'orchestre  allemand (° 9 juin 1898).
-30 mai : Pascual Márquez, matador espagnol (° 22 octobre 1914).
-Juin
-1er juin : Francis Birtles, pilote automobile, journaliste, aventurier, coureur cycliste, photographe et cinéaste australien (° 7 novembre 1881).
+30 mai : Pascual Márquez, matador espagnol (° 22 octobre 1914).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Francis Birtles, pilote automobile, journaliste, aventurier, coureur cycliste, photographe et cinéaste australien (° 7 novembre 1881).
 4 juin : Guillaume II d'Allemagne, dernier empereur Allemand et dernier roi de Prusse de 1888 à 1918 (° 27 janvier 1859).
 6 juin : Louis Chevrolet, coureur/constructeur automobile américain d'origine suisse (° 25 décembre 1878).
 8 juin : Franz Koritschoner, homme politique autrichien (° 23 février 1892).
@@ -652,9 +873,43 @@
 Ettore Tito, sculpteur et peintre italien (° 17 décembre 1859).
 29 juin : Ignacy Paderewski, pianiste, compositeur et homme politique polonais (° 6 novembre 1860).
 30 juin : Hugo Becker, violoncelliste et compositeur allemand d'origine alsacienne (° 13 février 1864).
-? juin : Valentin Neuville, compositeur et organiste français (° 12 avril 1863).
-Juillet
-5 juillet : Oskar Fried, chef d'orchestre et compositeur allemand (° 10 août 1871).
+? juin : Valentin Neuville, compositeur et organiste français (° 12 avril 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 juillet : Oskar Fried, chef d'orchestre et compositeur allemand (° 10 août 1871).
 7 juillet : Victor Dupont, peintre, aquarelliste, graveur et céramiste français (° 12 juillet 1873).
 8 juillet : Philippe Gaubert, chef d’orchestre, flûtiste et compositeur français (° 5 juillet 1879).
 9 juillet : André Chapuy, peintre et graveur français (° 23 mai 1882).
@@ -663,9 +918,43 @@
 26 juillet : Marx Dormoy, homme politique français (° 1er août 1888).
 28 juillet : Sosthène Weis, architecte et peintre luxembourgeois (° 29 janvier 1872).
 29 juillet : James Stephenson, acteur britannique (° 14 avril 1889).
-31 juillet : Alfred Melot, peintre français (° 19 octobre 1854).
-Août
-4 août : Mikhaïl Savoyarov, chansonnier, compositeur et poète russe puis soviétique (° 30 novembre 1876).
+31 juillet : Alfred Melot, peintre français (° 19 octobre 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>4 août : Mikhaïl Savoyarov, chansonnier, compositeur et poète russe puis soviétique (° 30 novembre 1876).
 5 août : Barnett Parker, acteur britannique (° 11 septembre 1886).
 6 août : Victor Perret, homme politique français (° 21 août 1883).
 7 août : Rabindranath Tagore, poète, écrivain indien (° 7 mai 1861).
@@ -676,9 +965,43 @@
 16 août : Robert Guénine, peintre, dessinateur, illustrateur russe puis soviétique d'origine juive (° 11 août 1884).
 19 août : Paul Duboc, coureur cycliste français (° 2 avril 1884).
 20 août : John Lawrence Baird, homme politique britannique (° 27 avril 1874).
-31 août : Marina Tsvetaïeva, poétesse russe puis soviétique (° 26 septembre 1892).
-Septembre
-8 septembre : Giuseppe Amisani, peintre italien (° 7 décembre 1881).
+31 août : Marina Tsvetaïeva, poétesse russe puis soviétique (° 26 septembre 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8 septembre : Giuseppe Amisani, peintre italien (° 7 décembre 1881).
 11 septembre : Christian Rakovski, médecin, homme d'État, citoyen roumain d'origine bulgare, socialiste révolutionnaire, puis homme politique et diplomate soviétique (° 13 août 1873).
 14 septembre : Benjamin Fleischmann, compositeur russe (° 20 juillet 1913).
 15 septembre : James Allen Ward VC, pilote néo-zélandais (° 14 juin 1919).
@@ -690,9 +1013,43 @@
 27 septembre :
 Alfonso Albéniz, footballeur et diplomate espagnol (° 1er janvier 1886).
 Eugène Cadel, peintre, graveur, critique d'art et enseignant français (° 18 juin 1862).
-29 septembre : Henry Paul Edmond Caron, peintre français (° 9 mai 1860).
-Octobre
-1er octobre : Délia Tétreault, religieuse et missionnaire canadienne (° 4 février 1865).
+29 septembre : Henry Paul Edmond Caron, peintre français (° 9 mai 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Délia Tétreault, religieuse et missionnaire canadienne (° 4 février 1865).
 3 octobre :
 Jaime Janer, coureur cycliste espagnol (° 20 mai 1900).
 Wilhelm Kienzl, compositeur autrichien (° 17 janvier 1857).
@@ -707,9 +1064,43 @@
 25 octobre :
 Giuseppe Casciaro, peintre paysagiste italien (° 9 mars 1861).
 Robert Delaunay, peintre français (° 12 avril 1865).
-? octobre : César Giris, peintre, dessinateur, caricaturiste, scénographe et sculpteur italien (° 1877).
-Novembre
-4 novembre : Henri-Gédéon Daloz, photographe, aquarelliste et peintre français (° 10 février 1861).
+? octobre : César Giris, peintre, dessinateur, caricaturiste, scénographe et sculpteur italien (° 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4 novembre : Henri-Gédéon Daloz, photographe, aquarelliste et peintre français (° 10 février 1861).
 5 novembre : Léo Wanner, journaliste et militante féministe et anti-impérialiste française (° 4 janvier 1886).
 6 novembre : Maurice Leblanc, écrivain français (° 11 décembre 1864).
 7 novembre : Paula Gans, peintre austro-hongroise puis tchécoslovaque (° 9 mai 1883).
@@ -728,9 +1119,43 @@
 Carola Lorenzini, aviatrice argentine (° 15 août 1899).
 24 novembre : Gabriel Girodon, peintre et sculpteur français (° 14 avril 1884).
 26 novembre : Ernest Lapointe, politicien canadien (° 6 octobre 1876).
-28 novembre : Mihailo Milovanović, peintre, sculpteur et écrivain serbe puis yougoslave (° 24 février 1879).
-Décembre
-2 décembre :
+28 novembre : Mihailo Milovanović, peintre, sculpteur et écrivain serbe puis yougoslave (° 24 février 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1941</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1941</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre :
 Murray Carrington, acteur britannique (° 13 mars 1885).
 Edward Rydz-Śmigły, homme politique polonais, officier de l'armée polonaise, peintre et poète (° 11 mars 1886).
 3 décembre : Pavel Filonov, peintre russe puis soviétique (° 8 janvier 1883).
